--- a/Code/Results/Cases/Case_0_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.217926631555452</v>
+        <v>8.598832290884035</v>
       </c>
       <c r="D2">
-        <v>3.780648495483781</v>
+        <v>4.723202461059867</v>
       </c>
       <c r="E2">
-        <v>19.55619130799063</v>
+        <v>13.38954024654233</v>
       </c>
       <c r="F2">
-        <v>17.4415274342903</v>
+        <v>23.50927051105727</v>
       </c>
       <c r="G2">
-        <v>1.996120317254139</v>
+        <v>3.624690452597635</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.50004403269608</v>
+        <v>21.09569803924334</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.31974287778954</v>
+        <v>9.9242591202757</v>
       </c>
       <c r="M2">
-        <v>100.2658026557065</v>
+        <v>59.2029173905363</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.81849713433606</v>
+        <v>21.02348849842801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.552301026415486</v>
+        <v>8.647245823064207</v>
       </c>
       <c r="D3">
-        <v>3.46222101250037</v>
+        <v>4.736437437554335</v>
       </c>
       <c r="E3">
-        <v>17.84199412654625</v>
+        <v>13.12136397856194</v>
       </c>
       <c r="F3">
-        <v>15.64472547949024</v>
+        <v>23.77624624529844</v>
       </c>
       <c r="G3">
-        <v>2.011350216813765</v>
+        <v>3.628633911525839</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.889178389066146</v>
+        <v>21.47565035685377</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.11954068959745</v>
+        <v>9.77756997543413</v>
       </c>
       <c r="M3">
-        <v>92.63630834427131</v>
+        <v>55.75968231933449</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.26712674598653</v>
+        <v>21.32175786957491</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.16473234795264</v>
+        <v>8.6814115622554</v>
       </c>
       <c r="D4">
-        <v>3.2657182545638</v>
+        <v>4.745702001242872</v>
       </c>
       <c r="E4">
-        <v>16.79232464182328</v>
+        <v>12.96042131958315</v>
       </c>
       <c r="F4">
-        <v>14.66615815085507</v>
+        <v>23.95618706659218</v>
       </c>
       <c r="G4">
-        <v>2.020517175060641</v>
+        <v>3.631156404444084</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.983388486598051</v>
+        <v>21.72052774235683</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.37836227295798</v>
+        <v>9.690532490804671</v>
       </c>
       <c r="M4">
-        <v>87.84108571463236</v>
+        <v>53.52543047524149</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.4084250356657</v>
+        <v>21.5169867784298</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.011007767691204</v>
+        <v>8.696430274318075</v>
       </c>
       <c r="D5">
-        <v>3.184971719941115</v>
+        <v>4.749761735344268</v>
       </c>
       <c r="E5">
-        <v>16.36292990727004</v>
+        <v>12.89585861839808</v>
       </c>
       <c r="F5">
-        <v>14.41746728800843</v>
+        <v>24.03345047336537</v>
       </c>
       <c r="G5">
-        <v>2.024227190650322</v>
+        <v>3.632209948289412</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.849095022960021</v>
+        <v>21.8232051755318</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.07370227478531</v>
+        <v>9.655863289414098</v>
       </c>
       <c r="M5">
-        <v>85.85227946220198</v>
+        <v>52.58497548028853</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.31522213344613</v>
+        <v>21.5995350078382</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.985710780977089</v>
+        <v>8.698989720199791</v>
       </c>
       <c r="D6">
-        <v>3.171512937474221</v>
+        <v>4.750452972102018</v>
       </c>
       <c r="E6">
-        <v>16.29147220583388</v>
+        <v>12.88520235558879</v>
       </c>
       <c r="F6">
-        <v>14.37776344158709</v>
+        <v>24.04651510947017</v>
       </c>
       <c r="G6">
-        <v>2.024842202300657</v>
+        <v>3.632386439724482</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.854127423496375</v>
+        <v>21.84042841221877</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.02291687816476</v>
+        <v>9.650155836312866</v>
       </c>
       <c r="M6">
-        <v>85.51977279592568</v>
+        <v>52.42701088372174</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.30154448348833</v>
+        <v>21.6134213278094</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.162643304140054</v>
+        <v>8.681609699289867</v>
       </c>
       <c r="D7">
-        <v>3.264632474037751</v>
+        <v>4.745755603315625</v>
       </c>
       <c r="E7">
-        <v>16.78654301408351</v>
+        <v>12.95954634779335</v>
       </c>
       <c r="F7">
-        <v>14.66269642263043</v>
+        <v>23.95721324972958</v>
       </c>
       <c r="G7">
-        <v>2.020567289526193</v>
+        <v>3.631170509009972</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.978607229458423</v>
+        <v>21.72190082471742</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.37426592296442</v>
+        <v>9.690061645131024</v>
       </c>
       <c r="M7">
-        <v>87.81441242076092</v>
+        <v>53.51286821074513</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.40704525065422</v>
+        <v>21.51808800597797</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.983245610995158</v>
+        <v>8.614591352473361</v>
       </c>
       <c r="D8">
-        <v>3.670768297319017</v>
+        <v>4.72752848774681</v>
       </c>
       <c r="E8">
-        <v>18.96289937751774</v>
+        <v>13.29635384934684</v>
       </c>
       <c r="F8">
-        <v>16.80654773332247</v>
+        <v>23.59794366789108</v>
       </c>
       <c r="G8">
-        <v>2.001424131581739</v>
+        <v>3.626029253621387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.9268929638315</v>
+        <v>21.22428522521629</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.90572097065375</v>
+        <v>9.87307446679405</v>
       </c>
       <c r="M8">
-        <v>97.65338188932891</v>
+        <v>58.04072351738681</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.27051214411037</v>
+        <v>21.12379193168398</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.838996661890777</v>
+        <v>8.51933797884606</v>
       </c>
       <c r="D9">
-        <v>4.487217381357318</v>
+        <v>4.700905714455584</v>
       </c>
       <c r="E9">
-        <v>23.41208969065684</v>
+        <v>13.98251699479431</v>
       </c>
       <c r="F9">
-        <v>21.79564519810301</v>
+        <v>23.02472523012903</v>
       </c>
       <c r="G9">
-        <v>1.961061239648884</v>
+        <v>3.616742536032985</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.49805032164406</v>
+        <v>20.34163218955256</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.97804080571668</v>
+        <v>10.2543298079292</v>
       </c>
       <c r="M9">
-        <v>116.5218272665389</v>
+        <v>65.96086883468409</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.57402643630185</v>
+        <v>20.44885765914895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.55719073705878</v>
+        <v>8.472733712605933</v>
       </c>
       <c r="D10">
-        <v>5.167488547330268</v>
+        <v>4.687036825225635</v>
       </c>
       <c r="E10">
-        <v>27.18534606153821</v>
+        <v>14.49731929680247</v>
       </c>
       <c r="F10">
-        <v>26.23023198420033</v>
+        <v>22.68960973323085</v>
       </c>
       <c r="G10">
-        <v>1.926396493905802</v>
+        <v>3.61039326998938</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.66033365383222</v>
+        <v>19.75186723456067</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.53041683586541</v>
+        <v>10.54581748743339</v>
       </c>
       <c r="M10">
-        <v>131.2305286350937</v>
+        <v>71.19099203355204</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.40990700119452</v>
+        <v>20.01635005597337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.53013921848039</v>
+        <v>8.456903566672493</v>
       </c>
       <c r="D11">
-        <v>5.531327385327304</v>
+        <v>4.681993653723731</v>
       </c>
       <c r="E11">
-        <v>29.22665493673396</v>
+        <v>14.73284239939688</v>
       </c>
       <c r="F11">
-        <v>28.62415251208474</v>
+        <v>22.55717890065291</v>
       </c>
       <c r="G11">
-        <v>1.907794363260656</v>
+        <v>3.607605170485251</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.94610749919793</v>
+        <v>19.49681294644806</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.89331429004224</v>
+        <v>10.680421551188</v>
       </c>
       <c r="M11">
-        <v>138.7039496047661</v>
+        <v>73.44243390862134</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.49121163396349</v>
+        <v>19.83417378207954</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.95127279843701</v>
+        <v>8.451706179274792</v>
       </c>
       <c r="D12">
-        <v>5.684977400895988</v>
+        <v>4.680268617268696</v>
       </c>
       <c r="E12">
-        <v>30.09359186950845</v>
+        <v>14.82214400269012</v>
       </c>
       <c r="F12">
-        <v>29.63093109703847</v>
+        <v>22.51002334945662</v>
       </c>
       <c r="G12">
-        <v>1.899967993234068</v>
+        <v>3.606563595360479</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.91660687945553</v>
+        <v>19.40218172741332</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.46862663158775</v>
+        <v>10.73164256781532</v>
       </c>
       <c r="M12">
-        <v>141.77741186905</v>
+        <v>74.27665689385766</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.36949936423374</v>
+        <v>19.76735860645756</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.85745298478365</v>
+        <v>8.45278967604699</v>
       </c>
       <c r="D13">
-        <v>5.65093227529366</v>
+        <v>4.680631876087644</v>
       </c>
       <c r="E13">
-        <v>29.90124585380732</v>
+        <v>14.8029074177746</v>
       </c>
       <c r="F13">
-        <v>29.408230373004</v>
+        <v>22.52004416374176</v>
       </c>
       <c r="G13">
-        <v>1.901699777780208</v>
+        <v>3.606787288005969</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.70143296984463</v>
+        <v>19.42247457655541</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.34115717711381</v>
+        <v>10.72060071777356</v>
       </c>
       <c r="M13">
-        <v>141.1006187088074</v>
+        <v>74.09780749544129</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.17505321493312</v>
+        <v>19.78165064076838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.56346924632886</v>
+        <v>8.456459854677908</v>
       </c>
       <c r="D14">
-        <v>5.543566996255771</v>
+        <v>4.681848016480967</v>
       </c>
       <c r="E14">
-        <v>29.29560684281412</v>
+        <v>14.74018743812045</v>
       </c>
       <c r="F14">
-        <v>28.70449689807853</v>
+        <v>22.55323873097222</v>
       </c>
       <c r="G14">
-        <v>1.907170002375344</v>
+        <v>3.607519195659128</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.02334724014684</v>
+        <v>19.48898814885783</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.93914627785728</v>
+        <v>10.68463075477188</v>
       </c>
       <c r="M14">
-        <v>138.9505711408673</v>
+        <v>73.51143345738107</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.56123199528034</v>
+        <v>19.82863289782007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.39152309907462</v>
+        <v>8.458812502023635</v>
       </c>
       <c r="D15">
-        <v>5.480273092591935</v>
+        <v>4.682617072852871</v>
       </c>
       <c r="E15">
-        <v>28.93923959914641</v>
+        <v>14.70178227028006</v>
       </c>
       <c r="F15">
-        <v>28.28879953466263</v>
+        <v>22.57396461088776</v>
       </c>
       <c r="G15">
-        <v>1.910400154070057</v>
+        <v>3.607969355952104</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.62409527527751</v>
+        <v>19.52998544332287</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.70213005893394</v>
+        <v>10.66262946058757</v>
       </c>
       <c r="M15">
-        <v>137.6718794368504</v>
+        <v>73.14987394766126</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.1990763656793</v>
+        <v>19.85769593834329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.49903548891846</v>
+        <v>8.473878434526506</v>
       </c>
       <c r="D16">
-        <v>5.145310920431248</v>
+        <v>4.687392106392401</v>
       </c>
       <c r="E16">
-        <v>27.06144002714801</v>
+        <v>14.48194741499947</v>
       </c>
       <c r="F16">
-        <v>26.08426184619822</v>
+        <v>22.69867692532949</v>
       </c>
       <c r="G16">
-        <v>1.927531520152259</v>
+        <v>3.610577479051358</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.52189266190623</v>
+        <v>19.76880601017704</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.44730256078265</v>
+        <v>10.53705777863067</v>
       </c>
       <c r="M16">
-        <v>130.7660798986176</v>
+        <v>71.04128544166348</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.28328479087469</v>
+        <v>20.02855529331172</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.01154214276458</v>
+        <v>8.484513963602575</v>
       </c>
       <c r="D17">
-        <v>4.957283588722725</v>
+        <v>4.690647514602539</v>
       </c>
       <c r="E17">
-        <v>26.01333479834942</v>
+        <v>14.34737108106834</v>
       </c>
       <c r="F17">
-        <v>24.84856370709832</v>
+        <v>22.78039121819747</v>
       </c>
       <c r="G17">
-        <v>1.937149705253806</v>
+        <v>3.612203009863404</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.35398233724507</v>
+        <v>19.91873737748604</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.74240559988738</v>
+        <v>10.46050897918525</v>
       </c>
       <c r="M17">
-        <v>126.7873053432631</v>
+        <v>69.71501894571077</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.21251058980698</v>
+        <v>20.13715671544673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.74702892958371</v>
+        <v>8.491135208425247</v>
       </c>
       <c r="D18">
-        <v>4.85357424415588</v>
+        <v>4.692638920104686</v>
       </c>
       <c r="E18">
-        <v>25.43707959860382</v>
+        <v>14.2700965443335</v>
       </c>
       <c r="F18">
-        <v>24.16936865178437</v>
+        <v>22.82926796882584</v>
       </c>
       <c r="G18">
-        <v>1.942446751476145</v>
+        <v>3.613147416677591</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.7150462110462</v>
+        <v>20.0062161844882</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.35341366855712</v>
+        <v>10.41667109196836</v>
       </c>
       <c r="M18">
-        <v>124.5614092399403</v>
+        <v>68.9401562486316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.6247524598954</v>
+        <v>20.20098831771997</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.659782930021924</v>
+        <v>8.493462853318233</v>
       </c>
       <c r="D19">
-        <v>4.819089548945132</v>
+        <v>4.693333531386934</v>
       </c>
       <c r="E19">
-        <v>25.2457592269522</v>
+        <v>14.24395754187696</v>
       </c>
       <c r="F19">
-        <v>23.94406072499958</v>
+        <v>22.84613568416481</v>
       </c>
       <c r="G19">
-        <v>1.944206117121146</v>
+        <v>3.613468804473424</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.50355131851023</v>
+        <v>20.03604694572618</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.2240358504376</v>
+        <v>10.40186234268132</v>
       </c>
       <c r="M19">
-        <v>123.8163539150913</v>
+        <v>68.67573471397267</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.42988711261292</v>
+        <v>20.22283315692814</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.0616867461331</v>
+        <v>8.483329455332402</v>
       </c>
       <c r="D20">
-        <v>4.976805863344764</v>
+        <v>4.690288637804862</v>
       </c>
       <c r="E20">
-        <v>26.1219561322662</v>
+        <v>14.3616840675487</v>
       </c>
       <c r="F20">
-        <v>24.97664515168768</v>
+        <v>22.77149752010259</v>
       </c>
       <c r="G20">
-        <v>1.93615176658775</v>
+        <v>3.612028993243182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.47470690274359</v>
+        <v>19.90264801874758</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.81561338820031</v>
+        <v>10.46863825270995</v>
       </c>
       <c r="M20">
-        <v>127.2038211965948</v>
+        <v>69.8574471725571</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.32340824532656</v>
+        <v>20.12545390551846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.6480265077516</v>
+        <v>8.455359999635444</v>
       </c>
       <c r="D21">
-        <v>5.574556332755192</v>
+        <v>4.681485771813779</v>
       </c>
       <c r="E21">
-        <v>29.47026826221398</v>
+        <v>14.75860731623032</v>
       </c>
       <c r="F21">
-        <v>28.9078193669136</v>
+        <v>22.54340652046113</v>
       </c>
       <c r="G21">
-        <v>1.905589838902134</v>
+        <v>3.607303832344465</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.21897297024819</v>
+        <v>19.46939809317758</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.05518480025763</v>
+        <v>10.69518953941037</v>
       </c>
       <c r="M21">
-        <v>139.573600366685</v>
+        <v>73.68416340749565</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.73848116601849</v>
+        <v>19.81477352405082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.04354068742081</v>
+        <v>8.441738520748091</v>
       </c>
       <c r="D22">
-        <v>6.074164039050983</v>
+        <v>4.676810512453026</v>
       </c>
       <c r="E22">
-        <v>32.30292217907681</v>
+        <v>15.0186523011972</v>
       </c>
       <c r="F22">
-        <v>32.15462251474494</v>
+        <v>22.41183713609223</v>
       </c>
       <c r="G22">
-        <v>1.880303374854756</v>
+        <v>3.604298443807144</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.3762932073388</v>
+        <v>19.19765084177758</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.92592865405926</v>
+        <v>10.84469055617642</v>
       </c>
       <c r="M22">
-        <v>149.3697484250981</v>
+        <v>76.07821809143161</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.58039249924467</v>
+        <v>19.62441883899899</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.24440487959949</v>
+        <v>8.448574017714696</v>
       </c>
       <c r="D23">
-        <v>5.79069310420834</v>
+        <v>4.679206239908709</v>
       </c>
       <c r="E23">
-        <v>30.69178845405131</v>
+        <v>14.87982795053314</v>
       </c>
       <c r="F23">
-        <v>30.32078462606834</v>
+        <v>22.4804182132987</v>
       </c>
       <c r="G23">
-        <v>1.894600655943477</v>
+        <v>3.605894967498949</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.58500349137915</v>
+        <v>19.34162592336161</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.86443397566558</v>
+        <v>10.76478004832917</v>
       </c>
       <c r="M23">
-        <v>143.8637402498725</v>
+        <v>74.81023574756843</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.97246546027117</v>
+        <v>19.7248271324891</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.03896866936222</v>
+        <v>8.483863395028143</v>
       </c>
       <c r="D24">
-        <v>4.967966606520425</v>
+        <v>4.690450512968576</v>
       </c>
       <c r="E24">
-        <v>26.07276902507402</v>
+        <v>14.35521286387502</v>
       </c>
       <c r="F24">
-        <v>24.91864478672318</v>
+        <v>22.77551245748891</v>
       </c>
       <c r="G24">
-        <v>1.936603638589491</v>
+        <v>3.612107635407777</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.4200286999089</v>
+        <v>19.90991803064336</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.78246712969701</v>
+        <v>10.46496247243588</v>
       </c>
       <c r="M24">
-        <v>127.0153297533015</v>
+        <v>69.79309391628506</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.2731869634365</v>
+        <v>20.13074040580044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.296106200917466</v>
+        <v>8.54109907544151</v>
       </c>
       <c r="D25">
-        <v>4.259247646529384</v>
+        <v>4.707118365511213</v>
       </c>
       <c r="E25">
-        <v>22.16062809854742</v>
+        <v>13.79466623631892</v>
       </c>
       <c r="F25">
-        <v>20.34977794355529</v>
+        <v>23.1651324809447</v>
       </c>
       <c r="G25">
-        <v>1.972523886464572</v>
+        <v>3.619170830643663</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.15978253790738</v>
+        <v>20.57025419323331</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.12116795405671</v>
+        <v>10.14902879895613</v>
       </c>
       <c r="M25">
-        <v>111.3826023728729</v>
+        <v>63.92153350033747</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.32668016090753</v>
+        <v>20.62058161582141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.598832290884035</v>
+        <v>7.217926631555439</v>
       </c>
       <c r="D2">
-        <v>4.723202461059867</v>
+        <v>3.780648495483781</v>
       </c>
       <c r="E2">
-        <v>13.38954024654233</v>
+        <v>19.55619130799064</v>
       </c>
       <c r="F2">
-        <v>23.50927051105727</v>
+        <v>17.44152743429049</v>
       </c>
       <c r="G2">
-        <v>3.624690452597635</v>
+        <v>1.99612031725414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.09569803924334</v>
+        <v>10.50004403269625</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.9242591202757</v>
+        <v>14.31974287778956</v>
       </c>
       <c r="M2">
-        <v>59.2029173905363</v>
+        <v>100.2658026557066</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.02348849842801</v>
+        <v>12.81849713433624</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.647245823064207</v>
+        <v>6.552301026415471</v>
       </c>
       <c r="D3">
-        <v>4.736437437554335</v>
+        <v>3.462221012500327</v>
       </c>
       <c r="E3">
-        <v>13.12136397856194</v>
+        <v>17.84199412654625</v>
       </c>
       <c r="F3">
-        <v>23.77624624529844</v>
+        <v>15.6447254794903</v>
       </c>
       <c r="G3">
-        <v>3.628633911525839</v>
+        <v>2.011350216813899</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.47565035685377</v>
+        <v>8.889178389066155</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.77756997543413</v>
+        <v>13.11954068959745</v>
       </c>
       <c r="M3">
-        <v>55.75968231933449</v>
+        <v>92.63630834427123</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.32175786957491</v>
+        <v>11.26712674598654</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.6814115622554</v>
+        <v>6.16473234795264</v>
       </c>
       <c r="D4">
-        <v>4.745702001242872</v>
+        <v>3.265718254563758</v>
       </c>
       <c r="E4">
-        <v>12.96042131958315</v>
+        <v>16.79232464182328</v>
       </c>
       <c r="F4">
-        <v>23.95618706659218</v>
+        <v>14.66615815085505</v>
       </c>
       <c r="G4">
-        <v>3.631156404444084</v>
+        <v>2.020517175060508</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.72052774235683</v>
+        <v>7.983388486598098</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.690532490804671</v>
+        <v>12.37836227295797</v>
       </c>
       <c r="M4">
-        <v>53.52543047524149</v>
+        <v>87.84108571463234</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.5169867784298</v>
+        <v>10.40842503566568</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.696430274318075</v>
+        <v>6.0110077676912</v>
       </c>
       <c r="D5">
-        <v>4.749761735344268</v>
+        <v>3.184971719941093</v>
       </c>
       <c r="E5">
-        <v>12.89585861839808</v>
+        <v>16.36292990727007</v>
       </c>
       <c r="F5">
-        <v>24.03345047336537</v>
+        <v>14.41746728800842</v>
       </c>
       <c r="G5">
-        <v>3.632209948289412</v>
+        <v>2.024227190650455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.8232051755318</v>
+        <v>7.849095022960026</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.655863289414098</v>
+        <v>12.07370227478535</v>
       </c>
       <c r="M5">
-        <v>52.58497548028853</v>
+        <v>85.85227946220193</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.5995350078382</v>
+        <v>10.31522213344614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.698989720199791</v>
+        <v>5.985710780977106</v>
       </c>
       <c r="D6">
-        <v>4.750452972102018</v>
+        <v>3.171512937474152</v>
       </c>
       <c r="E6">
-        <v>12.88520235558879</v>
+        <v>16.29147220583393</v>
       </c>
       <c r="F6">
-        <v>24.04651510947017</v>
+        <v>14.37776344158707</v>
       </c>
       <c r="G6">
-        <v>3.632386439724482</v>
+        <v>2.024842202300791</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.84042841221877</v>
+        <v>7.854127423496353</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.650155836312866</v>
+        <v>12.02291687816477</v>
       </c>
       <c r="M6">
-        <v>52.42701088372174</v>
+        <v>85.51977279592586</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.6134213278094</v>
+        <v>10.3015444834883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.681609699289867</v>
+        <v>6.162643304140054</v>
       </c>
       <c r="D7">
-        <v>4.745755603315625</v>
+        <v>3.264632474037773</v>
       </c>
       <c r="E7">
-        <v>12.95954634779335</v>
+        <v>16.78654301408356</v>
       </c>
       <c r="F7">
-        <v>23.95721324972958</v>
+        <v>14.66269642263045</v>
       </c>
       <c r="G7">
-        <v>3.631170509009972</v>
+        <v>2.020567289526057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.72190082471742</v>
+        <v>7.978607229458453</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.690061645131024</v>
+        <v>12.37426592296446</v>
       </c>
       <c r="M7">
-        <v>53.51286821074513</v>
+        <v>87.81441242076092</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.51808800597797</v>
+        <v>10.40704525065424</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.614591352473361</v>
+        <v>6.983245610995207</v>
       </c>
       <c r="D8">
-        <v>4.72752848774681</v>
+        <v>3.670768297319105</v>
       </c>
       <c r="E8">
-        <v>13.29635384934684</v>
+        <v>18.96289937751774</v>
       </c>
       <c r="F8">
-        <v>23.59794366789108</v>
+        <v>16.80654773332241</v>
       </c>
       <c r="G8">
-        <v>3.626029253621387</v>
+        <v>2.001424131581873</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.22428522521629</v>
+        <v>9.926892963831452</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.87307446679405</v>
+        <v>13.90572097065379</v>
       </c>
       <c r="M8">
-        <v>58.04072351738681</v>
+        <v>97.6533818893289</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.12379193168398</v>
+        <v>12.27051214411033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.51933797884606</v>
+        <v>8.838996661890823</v>
       </c>
       <c r="D9">
-        <v>4.700905714455584</v>
+        <v>4.48721738135736</v>
       </c>
       <c r="E9">
-        <v>13.98251699479431</v>
+        <v>23.41208969065685</v>
       </c>
       <c r="F9">
-        <v>23.02472523012903</v>
+        <v>21.7956451981028</v>
       </c>
       <c r="G9">
-        <v>3.616742536032985</v>
+        <v>1.961061239649016</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.34163218955256</v>
+        <v>14.49805032164388</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.2543298079292</v>
+        <v>16.97804080571668</v>
       </c>
       <c r="M9">
-        <v>65.96086883468409</v>
+        <v>116.5218272665387</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.44885765914895</v>
+        <v>16.57402643630165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.472733712605933</v>
+        <v>10.5571907370589</v>
       </c>
       <c r="D10">
-        <v>4.687036825225635</v>
+        <v>5.167488547330168</v>
       </c>
       <c r="E10">
-        <v>14.49731929680247</v>
+        <v>27.18534606153825</v>
       </c>
       <c r="F10">
-        <v>22.68960973323085</v>
+        <v>26.23023198420056</v>
       </c>
       <c r="G10">
-        <v>3.61039326998938</v>
+        <v>1.926396493905803</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.75186723456067</v>
+        <v>18.66033365383242</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.54581748743339</v>
+        <v>19.53041683586541</v>
       </c>
       <c r="M10">
-        <v>71.19099203355204</v>
+        <v>131.2305286350939</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.01635005597337</v>
+        <v>20.40990700119471</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.456903566672493</v>
+        <v>11.5301392184802</v>
       </c>
       <c r="D11">
-        <v>4.681993653723731</v>
+        <v>5.531327385327455</v>
       </c>
       <c r="E11">
-        <v>14.73284239939688</v>
+        <v>29.2266549367339</v>
       </c>
       <c r="F11">
-        <v>22.55717890065291</v>
+        <v>28.62415251208481</v>
       </c>
       <c r="G11">
-        <v>3.607605170485251</v>
+        <v>1.907794363260789</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.49681294644806</v>
+        <v>20.94610749919801</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.680421551188</v>
+        <v>20.89331429004223</v>
       </c>
       <c r="M11">
-        <v>73.44243390862134</v>
+        <v>138.7039496047661</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.83417378207954</v>
+        <v>22.49121163396362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.451706179274792</v>
+        <v>11.95127279843683</v>
       </c>
       <c r="D12">
-        <v>4.680268617268696</v>
+        <v>5.684977400895928</v>
       </c>
       <c r="E12">
-        <v>14.82214400269012</v>
+        <v>30.0935918695083</v>
       </c>
       <c r="F12">
-        <v>22.51002334945662</v>
+        <v>29.63093109703826</v>
       </c>
       <c r="G12">
-        <v>3.606563595360479</v>
+        <v>1.899967993233935</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.40218172741332</v>
+        <v>21.91660687945528</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.73164256781532</v>
+        <v>21.46862663158767</v>
       </c>
       <c r="M12">
-        <v>74.27665689385766</v>
+        <v>141.7774118690497</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.76735860645756</v>
+        <v>23.36949936423354</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.45278967604699</v>
+        <v>11.85745298478366</v>
       </c>
       <c r="D13">
-        <v>4.680631876087644</v>
+        <v>5.650932275293709</v>
       </c>
       <c r="E13">
-        <v>14.8029074177746</v>
+        <v>29.90124585380724</v>
       </c>
       <c r="F13">
-        <v>22.52004416374176</v>
+        <v>29.40823037300386</v>
       </c>
       <c r="G13">
-        <v>3.606787288005969</v>
+        <v>1.901699777780208</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.42247457655541</v>
+        <v>21.70143296984454</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.72060071777356</v>
+        <v>21.34115717711381</v>
       </c>
       <c r="M13">
-        <v>74.09780749544129</v>
+        <v>141.1006187088073</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.78165064076838</v>
+        <v>23.17505321493301</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.456459854677908</v>
+        <v>11.56346924632889</v>
       </c>
       <c r="D14">
-        <v>4.681848016480967</v>
+        <v>5.543566996255685</v>
       </c>
       <c r="E14">
-        <v>14.74018743812045</v>
+        <v>29.29560684281417</v>
       </c>
       <c r="F14">
-        <v>22.55323873097222</v>
+        <v>28.70449689807841</v>
       </c>
       <c r="G14">
-        <v>3.607519195659128</v>
+        <v>1.907170002375476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.48898814885783</v>
+        <v>21.02334724014669</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.68463075477188</v>
+        <v>20.9391462778573</v>
       </c>
       <c r="M14">
-        <v>73.51143345738107</v>
+        <v>138.9505711408672</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.82863289782007</v>
+        <v>22.5612319952802</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.458812502023635</v>
+        <v>11.3915230990746</v>
       </c>
       <c r="D15">
-        <v>4.682617072852871</v>
+        <v>5.480273092591839</v>
       </c>
       <c r="E15">
-        <v>14.70178227028006</v>
+        <v>28.93923959914655</v>
       </c>
       <c r="F15">
-        <v>22.57396461088776</v>
+        <v>28.28879953466291</v>
       </c>
       <c r="G15">
-        <v>3.607969355952104</v>
+        <v>1.91040015407019</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.52998544332287</v>
+        <v>20.62409527527776</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.66262946058757</v>
+        <v>20.70213005893405</v>
       </c>
       <c r="M15">
-        <v>73.14987394766126</v>
+        <v>137.6718794368507</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.85769593834329</v>
+        <v>22.19907636567949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.473878434526506</v>
+        <v>10.49903548891836</v>
       </c>
       <c r="D16">
-        <v>4.687392106392401</v>
+        <v>5.145310920431082</v>
       </c>
       <c r="E16">
-        <v>14.48194741499947</v>
+        <v>27.06144002714803</v>
       </c>
       <c r="F16">
-        <v>22.69867692532949</v>
+        <v>26.08426184619835</v>
       </c>
       <c r="G16">
-        <v>3.610577479051358</v>
+        <v>1.927531520152258</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.76880601017704</v>
+        <v>18.52189266190626</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.53705777863067</v>
+        <v>19.44730256078269</v>
       </c>
       <c r="M16">
-        <v>71.04128544166348</v>
+        <v>130.7660798986177</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.02855529331172</v>
+        <v>20.28328479087474</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.484513963602575</v>
+        <v>10.0115421427645</v>
       </c>
       <c r="D17">
-        <v>4.690647514602539</v>
+        <v>4.957283588722719</v>
       </c>
       <c r="E17">
-        <v>14.34737108106834</v>
+        <v>26.0133347983493</v>
       </c>
       <c r="F17">
-        <v>22.78039121819747</v>
+        <v>24.84856370709846</v>
       </c>
       <c r="G17">
-        <v>3.612203009863404</v>
+        <v>1.937149705253806</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.91873737748604</v>
+        <v>17.3539823372452</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.46050897918525</v>
+        <v>18.74240559988731</v>
       </c>
       <c r="M17">
-        <v>69.71501894571077</v>
+        <v>126.7873053432629</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.13715671544673</v>
+        <v>19.2125105898071</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.491135208425247</v>
+        <v>9.747028929583722</v>
       </c>
       <c r="D18">
-        <v>4.692638920104686</v>
+        <v>4.853574244155772</v>
       </c>
       <c r="E18">
-        <v>14.2700965443335</v>
+        <v>25.43707959860393</v>
       </c>
       <c r="F18">
-        <v>22.82926796882584</v>
+        <v>24.16936865178432</v>
       </c>
       <c r="G18">
-        <v>3.613147416677591</v>
+        <v>1.942446751476145</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.0062161844882</v>
+        <v>16.71504621104606</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.41667109196836</v>
+        <v>18.35341366855721</v>
       </c>
       <c r="M18">
-        <v>68.9401562486316</v>
+        <v>124.5614092399405</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.20098831771997</v>
+        <v>18.62475245989528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.493462853318233</v>
+        <v>9.659782930021931</v>
       </c>
       <c r="D19">
-        <v>4.693333531386934</v>
+        <v>4.819089548945126</v>
       </c>
       <c r="E19">
-        <v>14.24395754187696</v>
+        <v>25.24575922695226</v>
       </c>
       <c r="F19">
-        <v>22.84613568416481</v>
+        <v>23.9440607249996</v>
       </c>
       <c r="G19">
-        <v>3.613468804473424</v>
+        <v>1.944206117121146</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.03604694572618</v>
+        <v>16.50355131851023</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.40186234268132</v>
+        <v>18.22403585043764</v>
       </c>
       <c r="M19">
-        <v>68.67573471397267</v>
+        <v>123.8163539150915</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.22283315692814</v>
+        <v>18.42988711261293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.483329455332402</v>
+        <v>10.0616867461331</v>
       </c>
       <c r="D20">
-        <v>4.690288637804862</v>
+        <v>4.976805863344674</v>
       </c>
       <c r="E20">
-        <v>14.3616840675487</v>
+        <v>26.1219561322662</v>
       </c>
       <c r="F20">
-        <v>22.77149752010259</v>
+        <v>24.97664515168768</v>
       </c>
       <c r="G20">
-        <v>3.612028993243182</v>
+        <v>1.936151766587752</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.90264801874758</v>
+        <v>17.47470690274355</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.46863825270995</v>
+        <v>18.81561338820034</v>
       </c>
       <c r="M20">
-        <v>69.8574471725571</v>
+        <v>127.2038211965947</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.12545390551846</v>
+        <v>19.32340824532653</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.455359999635444</v>
+        <v>11.64802650775161</v>
       </c>
       <c r="D21">
-        <v>4.681485771813779</v>
+        <v>5.574556332755264</v>
       </c>
       <c r="E21">
-        <v>14.75860731623032</v>
+        <v>29.47026826221403</v>
       </c>
       <c r="F21">
-        <v>22.54340652046113</v>
+        <v>28.90781936691375</v>
       </c>
       <c r="G21">
-        <v>3.607303832344465</v>
+        <v>1.905589838902268</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.46939809317758</v>
+        <v>21.21897297024836</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.69518953941037</v>
+        <v>21.05518480025768</v>
       </c>
       <c r="M21">
-        <v>73.68416340749565</v>
+        <v>139.5736003666853</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.81477352405082</v>
+        <v>22.73848116601862</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.441738520748091</v>
+        <v>13.0435406874207</v>
       </c>
       <c r="D22">
-        <v>4.676810512453026</v>
+        <v>6.074164039050882</v>
       </c>
       <c r="E22">
-        <v>15.0186523011972</v>
+        <v>32.30292217907675</v>
       </c>
       <c r="F22">
-        <v>22.41183713609223</v>
+        <v>32.15462251474497</v>
       </c>
       <c r="G22">
-        <v>3.604298443807144</v>
+        <v>1.88030337485489</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.19765084177758</v>
+        <v>24.37629320733874</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.84469055617642</v>
+        <v>22.92592865405922</v>
       </c>
       <c r="M22">
-        <v>76.07821809143161</v>
+        <v>149.3697484250981</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.62441883899899</v>
+        <v>25.58039249924463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.448574017714696</v>
+        <v>12.2444048795995</v>
       </c>
       <c r="D23">
-        <v>4.679206239908709</v>
+        <v>5.790693104208389</v>
       </c>
       <c r="E23">
-        <v>14.87982795053314</v>
+        <v>30.69178845405132</v>
       </c>
       <c r="F23">
-        <v>22.4804182132987</v>
+        <v>30.32078462606854</v>
       </c>
       <c r="G23">
-        <v>3.605894967498949</v>
+        <v>1.894600655943612</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.34162592336161</v>
+        <v>22.58500349137935</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.76478004832917</v>
+        <v>21.86443397566556</v>
       </c>
       <c r="M23">
-        <v>74.81023574756843</v>
+        <v>143.8637402498726</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.7248271324891</v>
+        <v>23.97246546027137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.483863395028143</v>
+        <v>10.03896866936231</v>
       </c>
       <c r="D24">
-        <v>4.690450512968576</v>
+        <v>4.967966606520482</v>
       </c>
       <c r="E24">
-        <v>14.35521286387502</v>
+        <v>26.07276902507407</v>
       </c>
       <c r="F24">
-        <v>22.77551245748891</v>
+        <v>24.91864478672341</v>
       </c>
       <c r="G24">
-        <v>3.612107635407777</v>
+        <v>1.936603638589223</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.90991803064336</v>
+        <v>17.42002869990919</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.46496247243588</v>
+        <v>18.78246712969707</v>
       </c>
       <c r="M24">
-        <v>69.79309391628506</v>
+        <v>127.0153297533017</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.13074040580044</v>
+        <v>19.27318696343672</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.54109907544151</v>
+        <v>8.296106200917535</v>
       </c>
       <c r="D25">
-        <v>4.707118365511213</v>
+        <v>4.259247646529439</v>
       </c>
       <c r="E25">
-        <v>13.79466623631892</v>
+        <v>22.16062809854748</v>
       </c>
       <c r="F25">
-        <v>23.1651324809447</v>
+        <v>20.34977794355538</v>
       </c>
       <c r="G25">
-        <v>3.619170830643663</v>
+        <v>1.972523886464439</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.57025419323331</v>
+        <v>13.15978253790754</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.14902879895613</v>
+        <v>16.12116795405673</v>
       </c>
       <c r="M25">
-        <v>63.92153350033747</v>
+        <v>111.3826023728729</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.62058161582141</v>
+        <v>15.32668016090765</v>
       </c>
     </row>
   </sheetData>
